--- a/biology/Zoologie/Harpalus_obtusus/Harpalus_obtusus.xlsx
+++ b/biology/Zoologie/Harpalus_obtusus/Harpalus_obtusus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpalus offusus
 Harpalus obtusus est une espèce fossile d'insectes coléoptères de la famille des Carabidae.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpalus obtusus est décrite en 1891 par le paléontologue allemand Bruno Förster (1852–1924)[1],[2].
-Citation H. offusus en 1937
-L'espèce est citée sous le nom Harpalus offusus en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[3],[2].
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées[2]. Ces deux collections viennent de Kleinkembs, en Bade-Wurtemberg et de Brunnstatt dans le Haut-Rhin en Alsace[3],[2].
-Localité type
-La localité type est Brunstatt (donc en France)[3],[2].
-Étymologie
-L'épithète spécifique latine obtusus signifie obtus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpalus obtusus est décrite en 1891 par le paléontologue allemand Bruno Förster (1852–1924),.
 </t>
         </is>
       </c>
@@ -548,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937 concernant le nouvel échantillon R440 de la collection Mieg conservée au Muséum d'histoire naturelle de Bâle.[3],[note 1] : 
-« Förster donne une bonne description de cette espèce qu'il a trouvée à Brunnstatt. Elle est aussi représentée à Kleinkembs (éch. R440 de la collection Mieg). La nervation de l'élytre est très nette. Nous notons toutefois que la troisième et la quatrième stries ne se rencontrent pas vers le tiers postérieur comme l'indique Förster, mais plus près du sommet. On rencontre la même ornementation dans H. tabidus Heer de Radoboj ; mais dans cette espèce l'élytre est un peu plus grand. La partie antérieure de l'élytre est de teinte claire, la partie postérieure brune. Harpalus tabidus Heer et H. offusus Förster appartiennent sans doute à la même lignée. »[3].
+          <t>Citation H. offusus en 1937</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est citée sous le nom Harpalus offusus en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
 </t>
         </is>
       </c>
@@ -581,10 +591,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées. Ces deux collections viennent de Kleinkembs, en Bade-Wurtemberg et de Brunnstatt dans le Haut-Rhin en Alsace,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Localité type</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La localité type est Brunstatt (donc en France),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine obtusus signifie obtus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937 concernant le nouvel échantillon R440 de la collection Mieg conservée au Muséum d'histoire naturelle de Bâle.,[note 1] : 
+« Förster donne une bonne description de cette espèce qu'il a trouvée à Brunnstatt. Elle est aussi représentée à Kleinkembs (éch. R440 de la collection Mieg). La nervation de l'élytre est très nette. Nous notons toutefois que la troisième et la quatrième stries ne se rencontrent pas vers le tiers postérieur comme l'indique Förster, mais plus près du sommet. On rencontre la même ornementation dans H. tabidus Heer de Radoboj ; mais dans cette espèce l'élytre est un peu plus grand. La partie antérieure de l'élytre est de teinte claire, la partie postérieure brune. Harpalus tabidus Heer et H. offusus Förster appartiennent sans doute à la même lignée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_obtusus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Carabidae sont peu nombreux et ne sont pas caractéristiques de la station. Ils vivaient dans le proche voisinage.</t>
